--- a/biology/Zoologie/Diaphania/Diaphania.xlsx
+++ b/biology/Zoologie/Diaphania/Diaphania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diaphania est un genre de lépidoptères (papillons) de la famille des Crambidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Diaphania adelalis (Dognin, 1905)
 Diaphania albianalis (Hampson, 1918)
@@ -606,9 +620,43 @@
 Diaphania taenialis (Dognin, 1905)
 Diaphania terminalis (Maassen, 1890)
 Diaphania translucidalis (Guenée, 1854)
-Diaphania yurakyana Vila, Piñas &amp; Clavijo, 2004
-Anciennes espèces
-Diaphania eurytornalis (Hampson, 1912)
+Diaphania yurakyana Vila, Piñas &amp; Clavijo, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Diaphania</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diaphania</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Anciennes espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Diaphania eurytornalis (Hampson, 1912)
 Diaphania modialis (Dyar, 1912)
 Diaphania niveocilia (Hampson, 1899)</t>
         </is>
